--- a/hibaavun/modeles/modelequantificationethique.xlsx
+++ b/hibaavun/modeles/modelequantificationethique.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiba\Desktop\Modéles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samszo/Sites/GSI-AVUN_18-19/hibaavun/modeles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861B5708-B905-40D4-879F-B1E0B7CC9265}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>dimensions : physiques / acteurs / concepts / rapports</t>
   </si>
@@ -62,12 +66,30 @@
   </si>
   <si>
     <t>physique</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>acteur</t>
+  </si>
+  <si>
+    <t>=B2*C2</t>
+  </si>
+  <si>
+    <t>concept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -110,17 +132,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,61 +464,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -504,26 +534,306 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
